--- a/Code/Results/Cases/Case_2_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.15225237801237</v>
+        <v>16.53990612609962</v>
       </c>
       <c r="C2">
-        <v>7.50342440545171</v>
+        <v>5.341090415766084</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>4.380995140925708</v>
+        <v>10.28162005241925</v>
       </c>
       <c r="F2">
-        <v>43.70641803055729</v>
+        <v>51.89191793596606</v>
       </c>
       <c r="G2">
-        <v>2.166464283117305</v>
+        <v>3.770587296363396</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.26255510840573</v>
+        <v>38.73734811103076</v>
       </c>
       <c r="J2">
-        <v>7.586570506740002</v>
+        <v>10.86875401971438</v>
       </c>
       <c r="K2">
-        <v>11.63801502126197</v>
+        <v>14.9147871968598</v>
       </c>
       <c r="L2">
-        <v>6.068718183644198</v>
+        <v>11.20653685119239</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.45337557721605</v>
+        <v>16.4763354816007</v>
       </c>
       <c r="C3">
-        <v>6.963806068755667</v>
+        <v>5.163190754115814</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>4.385571086351176</v>
+        <v>10.31819399675949</v>
       </c>
       <c r="F3">
-        <v>42.38213993783083</v>
+        <v>51.67284419985511</v>
       </c>
       <c r="G3">
-        <v>2.175391294860766</v>
+        <v>3.773697749285053</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.59182023975051</v>
+        <v>38.61259272432469</v>
       </c>
       <c r="J3">
-        <v>7.604601801462518</v>
+        <v>10.86980068806209</v>
       </c>
       <c r="K3">
-        <v>11.08804739901882</v>
+        <v>14.86473886782259</v>
       </c>
       <c r="L3">
-        <v>5.968482729898676</v>
+        <v>11.23240924027923</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.01515255298706</v>
+        <v>16.442286713478</v>
       </c>
       <c r="C4">
-        <v>6.655488841768937</v>
+        <v>5.05221400526933</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.391327350667686</v>
+        <v>10.34233555126476</v>
       </c>
       <c r="F4">
-        <v>41.57378276433677</v>
+        <v>51.54605337122342</v>
       </c>
       <c r="G4">
-        <v>2.181012616723381</v>
+        <v>3.775706932531073</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.18760637154077</v>
+        <v>38.53995367796106</v>
       </c>
       <c r="J4">
-        <v>7.616257693764193</v>
+        <v>10.87059903977818</v>
       </c>
       <c r="K4">
-        <v>10.74613251463215</v>
+        <v>14.83800408553637</v>
       </c>
       <c r="L4">
-        <v>5.910449975156171</v>
+        <v>11.25043102858891</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.83451166521508</v>
+        <v>16.42967805327109</v>
       </c>
       <c r="C5">
-        <v>6.528710644133643</v>
+        <v>5.006625810445548</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4.394408417149555</v>
+        <v>10.35259812653061</v>
       </c>
       <c r="F5">
-        <v>41.24585458661981</v>
+        <v>51.49635377266429</v>
       </c>
       <c r="G5">
-        <v>2.183340244061515</v>
+        <v>3.776550763071794</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.02484454785708</v>
+        <v>38.51135881749826</v>
       </c>
       <c r="J5">
-        <v>7.621153625618309</v>
+        <v>10.87096345972751</v>
       </c>
       <c r="K5">
-        <v>10.60592160309771</v>
+        <v>14.8281230616153</v>
       </c>
       <c r="L5">
-        <v>5.887698014777698</v>
+        <v>11.25831233879044</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.80439946928091</v>
+        <v>16.42766124034663</v>
       </c>
       <c r="C6">
-        <v>6.507500320970228</v>
+        <v>4.999036216465401</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>4.394964264899811</v>
+        <v>10.35432789896748</v>
       </c>
       <c r="F6">
-        <v>41.19150081621586</v>
+        <v>51.48822084109865</v>
       </c>
       <c r="G6">
-        <v>2.183729019726723</v>
+        <v>3.776692397397081</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>30.99793763674817</v>
+        <v>38.50667170561239</v>
       </c>
       <c r="J6">
-        <v>7.621975386369472</v>
+        <v>10.87102633008574</v>
       </c>
       <c r="K6">
-        <v>10.58259270635918</v>
+        <v>14.8265437839905</v>
       </c>
       <c r="L6">
-        <v>5.883974602138844</v>
+        <v>11.25965347855335</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.01272437713024</v>
+        <v>16.44211152454353</v>
       </c>
       <c r="C7">
-        <v>6.653789764928526</v>
+        <v>5.051600559030519</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>4.391365933399316</v>
+        <v>10.34247223504306</v>
       </c>
       <c r="F7">
-        <v>41.56935380538548</v>
+        <v>51.5453751000183</v>
       </c>
       <c r="G7">
-        <v>2.181043856416372</v>
+        <v>3.775718211091598</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.18540332092827</v>
+        <v>38.53956395140484</v>
       </c>
       <c r="J7">
-        <v>7.616323131825957</v>
+        <v>10.87060379631308</v>
       </c>
       <c r="K7">
-        <v>10.74424486697191</v>
+        <v>14.83786671154385</v>
       </c>
       <c r="L7">
-        <v>5.910139486101793</v>
+        <v>11.25053514308071</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.91329401653626</v>
+        <v>16.51696105344349</v>
       </c>
       <c r="C8">
-        <v>7.320746717661615</v>
+        <v>5.28015597465274</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.381958134066297</v>
+        <v>10.29388161903931</v>
       </c>
       <c r="F8">
-        <v>43.24898560074278</v>
+        <v>51.81479570603371</v>
       </c>
       <c r="G8">
-        <v>2.169514274868928</v>
+        <v>3.771639213604179</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.02972867755278</v>
+        <v>38.6935165898944</v>
       </c>
       <c r="J8">
-        <v>7.592665783858778</v>
+        <v>10.86908255780329</v>
       </c>
       <c r="K8">
-        <v>11.4493671027558</v>
+        <v>14.89670713747895</v>
       </c>
       <c r="L8">
-        <v>6.033436707852757</v>
+        <v>11.21501443079414</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.59923829209742</v>
+        <v>16.70262060525447</v>
       </c>
       <c r="C9">
-        <v>8.578699091362628</v>
+        <v>5.711512550764843</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4.387117994661051</v>
+        <v>10.2119214133123</v>
       </c>
       <c r="F9">
-        <v>46.56927313941575</v>
+        <v>52.40310441187912</v>
       </c>
       <c r="G9">
-        <v>2.147935177860076</v>
+        <v>3.764424566626125</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.74435047754444</v>
+        <v>39.02637273101814</v>
       </c>
       <c r="J9">
-        <v>7.550956329174932</v>
+        <v>10.86733781623816</v>
       </c>
       <c r="K9">
-        <v>12.79192740966104</v>
+        <v>15.0433389815875</v>
       </c>
       <c r="L9">
-        <v>6.302437212245571</v>
+        <v>11.16229813690918</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.81347060364141</v>
+        <v>16.86172218517065</v>
       </c>
       <c r="C10">
-        <v>9.429287238034419</v>
+        <v>6.014578174507192</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>4.40558504900671</v>
+        <v>10.1597692136934</v>
       </c>
       <c r="F10">
-        <v>49.01256455371689</v>
+        <v>52.87003371300219</v>
       </c>
       <c r="G10">
-        <v>2.132585697791712</v>
+        <v>3.75959637919079</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>35.03866270960847</v>
+        <v>39.28910881107585</v>
       </c>
       <c r="J10">
-        <v>7.523231048942806</v>
+        <v>10.86681529341121</v>
       </c>
       <c r="K10">
-        <v>13.94095876330002</v>
+        <v>15.16943059693273</v>
       </c>
       <c r="L10">
-        <v>6.515783148286336</v>
+        <v>11.13387992979512</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.42103995819238</v>
+        <v>16.93878358901563</v>
       </c>
       <c r="C11">
-        <v>9.801323738770037</v>
+        <v>6.148801867186973</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>4.417225326656696</v>
+        <v>10.13778219371191</v>
       </c>
       <c r="F11">
-        <v>50.12319472799561</v>
+        <v>53.08954608990316</v>
       </c>
       <c r="G11">
-        <v>2.125681890019502</v>
+        <v>3.757501278598014</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>35.63497998021419</v>
+        <v>39.41241918335297</v>
       </c>
       <c r="J11">
-        <v>7.511267437851671</v>
+        <v>10.86674339126976</v>
       </c>
       <c r="K11">
-        <v>14.4815816002979</v>
+        <v>15.23060974972751</v>
       </c>
       <c r="L11">
-        <v>6.616078924945949</v>
+        <v>11.12318655659017</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.64757257687346</v>
+        <v>16.96861561989735</v>
       </c>
       <c r="C12">
-        <v>9.940160020076071</v>
+        <v>6.199059241766834</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4.422102755436033</v>
+        <v>10.12970510695006</v>
       </c>
       <c r="F12">
-        <v>50.54356049803608</v>
+        <v>53.17365083110202</v>
       </c>
       <c r="G12">
-        <v>2.123076100515111</v>
+        <v>3.756722387773222</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>35.86189301941277</v>
+        <v>39.4596431292692</v>
       </c>
       <c r="J12">
-        <v>7.506831905720171</v>
+        <v>10.86674007275074</v>
       </c>
       <c r="K12">
-        <v>14.68302021611507</v>
+        <v>15.25430997865764</v>
       </c>
       <c r="L12">
-        <v>6.65451244761487</v>
+        <v>11.11945802319707</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.598940478559</v>
+        <v>16.96216220721701</v>
       </c>
       <c r="C13">
-        <v>9.910348487999086</v>
+        <v>6.188261461910239</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>4.421031375826984</v>
+        <v>10.13143359555045</v>
       </c>
       <c r="F13">
-        <v>50.4530371388322</v>
+        <v>53.15549445373472</v>
       </c>
       <c r="G13">
-        <v>2.123636971965124</v>
+        <v>3.756889493248904</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>35.81297375809365</v>
+        <v>39.44944934538994</v>
       </c>
       <c r="J13">
-        <v>7.507782933427448</v>
+        <v>10.86673972301815</v>
       </c>
       <c r="K13">
-        <v>14.63978084304397</v>
+        <v>15.24918227278868</v>
       </c>
       <c r="L13">
-        <v>6.646215095373241</v>
+        <v>11.12024676946974</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.43974728048592</v>
+        <v>16.94122498737988</v>
       </c>
       <c r="C14">
-        <v>9.812786296514926</v>
+        <v>6.152948247251374</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>4.417617165642397</v>
+        <v>10.13711270331164</v>
       </c>
       <c r="F14">
-        <v>50.15778289281256</v>
+        <v>53.09644603656201</v>
       </c>
       <c r="G14">
-        <v>2.125467356158291</v>
+        <v>3.757436909092039</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>35.65362601124278</v>
+        <v>39.41629381913383</v>
       </c>
       <c r="J14">
-        <v>7.510900614149274</v>
+        <v>10.86674263869358</v>
       </c>
       <c r="K14">
-        <v>14.49821916755977</v>
+        <v>15.2325489957578</v>
       </c>
       <c r="L14">
-        <v>6.619231844332487</v>
+        <v>11.12287338123022</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.34177890074621</v>
+        <v>16.9284843470477</v>
       </c>
       <c r="C15">
-        <v>9.752763241935256</v>
+        <v>6.131242334497306</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>4.415587112840981</v>
+        <v>10.14062371102439</v>
       </c>
       <c r="F15">
-        <v>49.97690273313858</v>
+        <v>53.06040356592089</v>
       </c>
       <c r="G15">
-        <v>2.126589542789365</v>
+        <v>3.757774100129535</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>35.55616516477178</v>
+        <v>39.39605350035437</v>
       </c>
       <c r="J15">
-        <v>7.512822681037891</v>
+        <v>10.86674754030548</v>
       </c>
       <c r="K15">
-        <v>14.41108463390504</v>
+        <v>15.22242954949684</v>
       </c>
       <c r="L15">
-        <v>6.602762577013123</v>
+        <v>11.12452402125209</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.77326340636826</v>
+        <v>16.85677836772456</v>
       </c>
       <c r="C16">
-        <v>9.404682002512587</v>
+        <v>6.005728954523719</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>4.404889835281624</v>
+        <v>10.16124099877181</v>
       </c>
       <c r="F16">
-        <v>48.93995689864072</v>
+        <v>52.85582751542566</v>
       </c>
       <c r="G16">
-        <v>2.13303823029246</v>
+        <v>3.759735329513641</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>34.99984451261715</v>
+        <v>39.28112510590448</v>
       </c>
       <c r="J16">
-        <v>7.52402608195706</v>
+        <v>10.86682333448072</v>
       </c>
       <c r="K16">
-        <v>13.90516163382738</v>
+        <v>15.16550788790457</v>
       </c>
       <c r="L16">
-        <v>6.509292703447968</v>
+        <v>11.1346236873012</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.44269300992698</v>
+        <v>16.81397299373309</v>
       </c>
       <c r="C17">
-        <v>9.187395021421386</v>
+        <v>5.927762915754293</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>4.399159801668814</v>
+        <v>10.17433335518477</v>
       </c>
       <c r="F17">
-        <v>48.30353240070026</v>
+        <v>52.73211734274162</v>
       </c>
       <c r="G17">
-        <v>2.137012561956324</v>
+        <v>3.76096435722553</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>34.66049411635863</v>
+        <v>39.21157990150931</v>
       </c>
       <c r="J17">
-        <v>7.531066218486844</v>
+        <v>10.8669123450716</v>
       </c>
       <c r="K17">
-        <v>13.58881624716089</v>
+        <v>15.13155531243877</v>
       </c>
       <c r="L17">
-        <v>6.452772854231263</v>
+        <v>11.14139143753676</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.26638499242238</v>
+        <v>16.78979494967935</v>
       </c>
       <c r="C18">
-        <v>9.061008477549032</v>
+        <v>5.8825785036516</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>4.396168755728812</v>
+        <v>10.18202730651109</v>
       </c>
       <c r="F18">
-        <v>47.93740112747286</v>
+        <v>52.66163376751596</v>
       </c>
       <c r="G18">
-        <v>2.139306087468583</v>
+        <v>3.761680798075045</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>34.46601503328432</v>
+        <v>39.17193712653027</v>
       </c>
       <c r="J18">
-        <v>7.535176483217665</v>
+        <v>10.86697914318482</v>
       </c>
       <c r="K18">
-        <v>13.40462852158165</v>
+        <v>15.1123872281239</v>
       </c>
       <c r="L18">
-        <v>6.420570064835308</v>
+        <v>11.14549439583704</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.20648149900698</v>
+        <v>16.78168536067501</v>
       </c>
       <c r="C19">
-        <v>9.017971403494538</v>
+        <v>5.867222875106004</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>4.395208259201214</v>
+        <v>10.18466046767075</v>
       </c>
       <c r="F19">
-        <v>47.81342567682088</v>
+        <v>52.63788575831626</v>
       </c>
       <c r="G19">
-        <v>2.140084020758251</v>
+        <v>3.761925013114544</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>34.40028886107591</v>
+        <v>39.1585766904884</v>
       </c>
       <c r="J19">
-        <v>7.536578574346669</v>
+        <v>10.86700443735801</v>
       </c>
       <c r="K19">
-        <v>13.34187856794834</v>
+        <v>15.10595964534689</v>
       </c>
       <c r="L19">
-        <v>6.409719729028818</v>
+        <v>11.14691972367419</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.47522425141325</v>
+        <v>16.81848406849518</v>
       </c>
       <c r="C20">
-        <v>9.210670728038258</v>
+        <v>5.936098117944843</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>4.399738209178039</v>
+        <v>10.17292272871115</v>
       </c>
       <c r="F20">
-        <v>48.37128960895792</v>
+        <v>52.74521732496319</v>
       </c>
       <c r="G20">
-        <v>2.136588720827252</v>
+        <v>3.760832538734258</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>34.69654538514174</v>
+        <v>39.21894619161704</v>
       </c>
       <c r="J20">
-        <v>7.530310463661688</v>
+        <v>10.86690125455156</v>
       </c>
       <c r="K20">
-        <v>13.62272216638768</v>
+        <v>15.13513242215203</v>
       </c>
       <c r="L20">
-        <v>6.458757926681748</v>
+        <v>11.14064923400405</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.48660142142817</v>
+        <v>16.94735729156512</v>
       </c>
       <c r="C21">
-        <v>9.841497381844905</v>
+        <v>6.163336414375907</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>4.418607231279825</v>
+        <v>10.13543786320214</v>
       </c>
       <c r="F21">
-        <v>50.24451221765077</v>
+        <v>53.11376372467835</v>
       </c>
       <c r="G21">
-        <v>2.124929520057302</v>
+        <v>3.757275727516415</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>35.70040018147293</v>
+        <v>39.42601817653781</v>
       </c>
       <c r="J21">
-        <v>7.509982289187385</v>
+        <v>10.86674113286559</v>
       </c>
       <c r="K21">
-        <v>14.53988738123828</v>
+        <v>15.23742026060287</v>
       </c>
       <c r="L21">
-        <v>6.627145253812955</v>
+        <v>11.12209317894653</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.13948762020147</v>
+        <v>17.03536369679722</v>
       </c>
       <c r="C22">
-        <v>10.24190631106782</v>
+        <v>6.308508150581008</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>4.433677486614237</v>
+        <v>10.1123898223145</v>
       </c>
       <c r="F22">
-        <v>51.4675721256434</v>
+        <v>53.36032291437579</v>
       </c>
       <c r="G22">
-        <v>2.117357782628636</v>
+        <v>3.755035497907418</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.36291772313485</v>
+        <v>39.56442699428281</v>
       </c>
       <c r="J22">
-        <v>7.497250201147837</v>
+        <v>10.86677587579041</v>
       </c>
       <c r="K22">
-        <v>15.12023196152346</v>
+        <v>15.30736990063682</v>
       </c>
       <c r="L22">
-        <v>6.739836825713451</v>
+        <v>11.11183540709148</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.79287673801273</v>
+        <v>16.98805509715187</v>
       </c>
       <c r="C23">
-        <v>10.02925231943416</v>
+        <v>6.231347030147137</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>4.42538248454986</v>
+        <v>10.12455857150417</v>
       </c>
       <c r="F23">
-        <v>50.81492566975916</v>
+        <v>53.22822284076049</v>
       </c>
       <c r="G23">
-        <v>2.121395548397917</v>
+        <v>3.756223459898978</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.00871839101225</v>
+        <v>39.49027973053135</v>
       </c>
       <c r="J23">
-        <v>7.503994360080374</v>
+        <v>10.86674455651907</v>
       </c>
       <c r="K23">
-        <v>14.81219463509415</v>
+        <v>15.26975853632696</v>
       </c>
       <c r="L23">
-        <v>6.679453024307572</v>
+        <v>11.11713927067181</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.46052092759058</v>
+        <v>16.81644326629174</v>
       </c>
       <c r="C24">
-        <v>9.200152352551685</v>
+        <v>5.932330892960225</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>4.399475766936802</v>
+        <v>10.17355995276043</v>
       </c>
       <c r="F24">
-        <v>48.34065732276701</v>
+        <v>52.73929282925484</v>
       </c>
       <c r="G24">
-        <v>2.136780312316403</v>
+        <v>3.760892103165669</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>34.68024468271452</v>
+        <v>39.2156148325026</v>
       </c>
       <c r="J24">
-        <v>7.530651944936972</v>
+        <v>10.86690621990725</v>
       </c>
       <c r="K24">
-        <v>13.60740052462683</v>
+        <v>15.13351411411591</v>
       </c>
       <c r="L24">
-        <v>6.456051167317647</v>
+        <v>11.14098412356594</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.15263387716336</v>
+        <v>16.64832979123515</v>
       </c>
       <c r="C25">
-        <v>8.251656101340794</v>
+        <v>5.597015168181664</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>4.383163571989426</v>
+        <v>10.23267339906114</v>
       </c>
       <c r="F25">
-        <v>45.66962336959614</v>
+        <v>52.23771424689101</v>
       </c>
       <c r="G25">
-        <v>2.153674685314729</v>
+        <v>3.766292949798448</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>33.27437043056796</v>
+        <v>38.93307928227087</v>
       </c>
       <c r="J25">
-        <v>7.561732234304007</v>
+        <v>10.86767677634154</v>
       </c>
       <c r="K25">
-        <v>12.43382665752149</v>
+        <v>15.00039239855123</v>
       </c>
       <c r="L25">
-        <v>6.226843161549962</v>
+        <v>11.17474698430932</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_151/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_151/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.53990612609962</v>
+        <v>13.15225237801234</v>
       </c>
       <c r="C2">
-        <v>5.341090415766084</v>
+        <v>7.50342440545171</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.28162005241925</v>
+        <v>4.380995140925732</v>
       </c>
       <c r="F2">
-        <v>51.89191793596606</v>
+        <v>43.70641803055732</v>
       </c>
       <c r="G2">
-        <v>3.770587296363396</v>
+        <v>2.166464283117176</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>38.73734811103076</v>
+        <v>32.26255510840564</v>
       </c>
       <c r="J2">
-        <v>10.86875401971438</v>
+        <v>7.586570506739869</v>
       </c>
       <c r="K2">
-        <v>14.9147871968598</v>
+        <v>11.63801502126192</v>
       </c>
       <c r="L2">
-        <v>11.20653685119239</v>
+        <v>6.068718183644211</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.4763354816007</v>
+        <v>12.45337557721605</v>
       </c>
       <c r="C3">
-        <v>5.163190754115814</v>
+        <v>6.963806068755643</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.31819399675949</v>
+        <v>4.385571086351215</v>
       </c>
       <c r="F3">
-        <v>51.67284419985511</v>
+        <v>42.38213993783113</v>
       </c>
       <c r="G3">
-        <v>3.773697749285053</v>
+        <v>2.175391294860895</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>38.61259272432469</v>
+        <v>31.59182023975066</v>
       </c>
       <c r="J3">
-        <v>10.86980068806209</v>
+        <v>7.604601801462405</v>
       </c>
       <c r="K3">
-        <v>14.86473886782259</v>
+        <v>11.08804739901885</v>
       </c>
       <c r="L3">
-        <v>11.23240924027923</v>
+        <v>5.96848272989869</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.442286713478</v>
+        <v>12.01515255298701</v>
       </c>
       <c r="C4">
-        <v>5.05221400526933</v>
+        <v>6.655488841768944</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.34233555126476</v>
+        <v>4.391327350667846</v>
       </c>
       <c r="F4">
-        <v>51.54605337122342</v>
+        <v>41.57378276433672</v>
       </c>
       <c r="G4">
-        <v>3.775706932531073</v>
+        <v>2.181012616723779</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>38.53995367796106</v>
+        <v>31.18760637154062</v>
       </c>
       <c r="J4">
-        <v>10.87059903977818</v>
+        <v>7.616257693764081</v>
       </c>
       <c r="K4">
-        <v>14.83800408553637</v>
+        <v>10.74613251463207</v>
       </c>
       <c r="L4">
-        <v>11.25043102858891</v>
+        <v>5.910449975156208</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.42967805327109</v>
+        <v>11.83451166521515</v>
       </c>
       <c r="C5">
-        <v>5.006625810445548</v>
+        <v>6.528710644133606</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.35259812653061</v>
+        <v>4.394408417149511</v>
       </c>
       <c r="F5">
-        <v>51.49635377266429</v>
+        <v>41.24585458661992</v>
       </c>
       <c r="G5">
-        <v>3.776550763071794</v>
+        <v>2.18334024406125</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>38.51135881749826</v>
+        <v>31.02484454785718</v>
       </c>
       <c r="J5">
-        <v>10.87096345972751</v>
+        <v>7.621153625618265</v>
       </c>
       <c r="K5">
-        <v>14.8281230616153</v>
+        <v>10.60592160309778</v>
       </c>
       <c r="L5">
-        <v>11.25831233879044</v>
+        <v>5.887698014777707</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.42766124034663</v>
+        <v>11.80439946928099</v>
       </c>
       <c r="C6">
-        <v>4.999036216465401</v>
+        <v>6.507500320970191</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.35432789896748</v>
+        <v>4.394964264899979</v>
       </c>
       <c r="F6">
-        <v>51.48822084109865</v>
+        <v>41.19150081621623</v>
       </c>
       <c r="G6">
-        <v>3.776692397397081</v>
+        <v>2.183729019726589</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>38.50667170561239</v>
+        <v>30.99793763674854</v>
       </c>
       <c r="J6">
-        <v>10.87102633008574</v>
+        <v>7.621975386369699</v>
       </c>
       <c r="K6">
-        <v>14.8265437839905</v>
+        <v>10.58259270635926</v>
       </c>
       <c r="L6">
-        <v>11.25965347855335</v>
+        <v>5.883974602138948</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.44211152454353</v>
+        <v>12.01272437713017</v>
       </c>
       <c r="C7">
-        <v>5.051600559030519</v>
+        <v>6.653789764928522</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.34247223504306</v>
+        <v>4.391365933399545</v>
       </c>
       <c r="F7">
-        <v>51.5453751000183</v>
+        <v>41.56935380538555</v>
       </c>
       <c r="G7">
-        <v>3.775718211091598</v>
+        <v>2.181043856416236</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>38.53956395140484</v>
+        <v>31.18540332092813</v>
       </c>
       <c r="J7">
-        <v>10.87060379631308</v>
+        <v>7.616323131825996</v>
       </c>
       <c r="K7">
-        <v>14.83786671154385</v>
+        <v>10.74424486697186</v>
       </c>
       <c r="L7">
-        <v>11.25053514308071</v>
+        <v>5.910139486101997</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.51696105344349</v>
+        <v>12.91329401653635</v>
       </c>
       <c r="C8">
-        <v>5.28015597465274</v>
+        <v>7.320746717661536</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.29388161903931</v>
+        <v>4.381958134066382</v>
       </c>
       <c r="F8">
-        <v>51.81479570603371</v>
+        <v>43.2489856007429</v>
       </c>
       <c r="G8">
-        <v>3.771639213604179</v>
+        <v>2.169514274869195</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>38.6935165898944</v>
+        <v>32.02972867755288</v>
       </c>
       <c r="J8">
-        <v>10.86908255780329</v>
+        <v>7.592665783858826</v>
       </c>
       <c r="K8">
-        <v>14.89670713747895</v>
+        <v>11.44936710275587</v>
       </c>
       <c r="L8">
-        <v>11.21501443079414</v>
+        <v>6.033436707852757</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.70262060525447</v>
+        <v>14.59923829209744</v>
       </c>
       <c r="C9">
-        <v>5.711512550764843</v>
+        <v>8.578699091362569</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.2119214133123</v>
+        <v>4.387117994660973</v>
       </c>
       <c r="F9">
-        <v>52.40310441187912</v>
+        <v>46.56927313941593</v>
       </c>
       <c r="G9">
-        <v>3.764424566626125</v>
+        <v>2.147935177860211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>39.02637273101814</v>
+        <v>33.74435047754461</v>
       </c>
       <c r="J9">
-        <v>10.86733781623816</v>
+        <v>7.550956329174947</v>
       </c>
       <c r="K9">
-        <v>15.0433389815875</v>
+        <v>12.79192740966105</v>
       </c>
       <c r="L9">
-        <v>11.16229813690918</v>
+        <v>6.302437212245531</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.86172218517065</v>
+        <v>15.81347060364137</v>
       </c>
       <c r="C10">
-        <v>6.014578174507192</v>
+        <v>9.429287238034423</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>10.1597692136934</v>
+        <v>4.405585049006858</v>
       </c>
       <c r="F10">
-        <v>52.87003371300219</v>
+        <v>49.01256455371691</v>
       </c>
       <c r="G10">
-        <v>3.75959637919079</v>
+        <v>2.132585697791712</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>39.28910881107585</v>
+        <v>35.03866270960847</v>
       </c>
       <c r="J10">
-        <v>10.86681529341121</v>
+        <v>7.523231048942907</v>
       </c>
       <c r="K10">
-        <v>15.16943059693273</v>
+        <v>13.94095876329999</v>
       </c>
       <c r="L10">
-        <v>11.13387992979512</v>
+        <v>6.515783148286465</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.93878358901563</v>
+        <v>16.42103995819239</v>
       </c>
       <c r="C11">
-        <v>6.148801867186973</v>
+        <v>9.801323738769938</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.13778219371191</v>
+        <v>4.417225326656625</v>
       </c>
       <c r="F11">
-        <v>53.08954608990316</v>
+        <v>50.12319472799572</v>
       </c>
       <c r="G11">
-        <v>3.757501278598014</v>
+        <v>2.125681890019365</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>39.41241918335297</v>
+        <v>35.63497998021435</v>
       </c>
       <c r="J11">
-        <v>10.86674339126976</v>
+        <v>7.511267437851714</v>
       </c>
       <c r="K11">
-        <v>15.23060974972751</v>
+        <v>14.48158160029788</v>
       </c>
       <c r="L11">
-        <v>11.12318655659017</v>
+        <v>6.616078924945914</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.96861561989735</v>
+        <v>16.6475725768735</v>
       </c>
       <c r="C12">
-        <v>6.199059241766834</v>
+        <v>9.940160020076203</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>10.12970510695006</v>
+        <v>4.422102755435907</v>
       </c>
       <c r="F12">
-        <v>53.17365083110202</v>
+        <v>50.54356049803619</v>
       </c>
       <c r="G12">
-        <v>3.756722387773222</v>
+        <v>2.123076100515244</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>39.4596431292692</v>
+        <v>35.86189301941285</v>
       </c>
       <c r="J12">
-        <v>10.86674007275074</v>
+        <v>7.506831905720084</v>
       </c>
       <c r="K12">
-        <v>15.25430997865764</v>
+        <v>14.6830202161151</v>
       </c>
       <c r="L12">
-        <v>11.11945802319707</v>
+        <v>6.654512447614803</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96216220721701</v>
+        <v>16.59894047855904</v>
       </c>
       <c r="C13">
-        <v>6.188261461910239</v>
+        <v>9.910348487999196</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>10.13143359555045</v>
+        <v>4.421031375827054</v>
       </c>
       <c r="F13">
-        <v>53.15549445373472</v>
+        <v>50.4530371388322</v>
       </c>
       <c r="G13">
-        <v>3.756889493248904</v>
+        <v>2.123636971965248</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>39.44944934538994</v>
+        <v>35.81297375809359</v>
       </c>
       <c r="J13">
-        <v>10.86673972301815</v>
+        <v>7.507782933427333</v>
       </c>
       <c r="K13">
-        <v>15.24918227278868</v>
+        <v>14.63978084304403</v>
       </c>
       <c r="L13">
-        <v>11.12024676946974</v>
+        <v>6.646215095373262</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.94122498737988</v>
+        <v>16.43974728048595</v>
       </c>
       <c r="C14">
-        <v>6.152948247251374</v>
+        <v>9.812786296514689</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>10.13711270331164</v>
+        <v>4.417617165642464</v>
       </c>
       <c r="F14">
-        <v>53.09644603656201</v>
+        <v>50.15778289281246</v>
       </c>
       <c r="G14">
-        <v>3.757436909092039</v>
+        <v>2.125467356158287</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>39.41629381913383</v>
+        <v>35.65362601124275</v>
       </c>
       <c r="J14">
-        <v>10.86674263869358</v>
+        <v>7.510900614149402</v>
       </c>
       <c r="K14">
-        <v>15.2325489957578</v>
+        <v>14.49821916755972</v>
       </c>
       <c r="L14">
-        <v>11.12287338123022</v>
+        <v>6.61923184433251</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.9284843470477</v>
+        <v>16.34177890074622</v>
       </c>
       <c r="C15">
-        <v>6.131242334497306</v>
+        <v>9.75276324193516</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>10.14062371102439</v>
+        <v>4.415587112840898</v>
       </c>
       <c r="F15">
-        <v>53.06040356592089</v>
+        <v>49.97690273313858</v>
       </c>
       <c r="G15">
-        <v>3.757774100129535</v>
+        <v>2.126589542789096</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>39.39605350035437</v>
+        <v>35.55616516477181</v>
       </c>
       <c r="J15">
-        <v>10.86674754030548</v>
+        <v>7.51282268103779</v>
       </c>
       <c r="K15">
-        <v>15.22242954949684</v>
+        <v>14.41108463390506</v>
       </c>
       <c r="L15">
-        <v>11.12452402125209</v>
+        <v>6.602762577013052</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.85677836772456</v>
+        <v>15.77326340636822</v>
       </c>
       <c r="C16">
-        <v>6.005728954523719</v>
+        <v>9.404682002512734</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>10.16124099877181</v>
+        <v>4.404889835281556</v>
       </c>
       <c r="F16">
-        <v>52.85582751542566</v>
+        <v>48.93995689864077</v>
       </c>
       <c r="G16">
-        <v>3.759735329513641</v>
+        <v>2.133038230292462</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>39.28112510590448</v>
+        <v>34.99984451261715</v>
       </c>
       <c r="J16">
-        <v>10.86682333448072</v>
+        <v>7.524026081956982</v>
       </c>
       <c r="K16">
-        <v>15.16550788790457</v>
+        <v>13.9051616338274</v>
       </c>
       <c r="L16">
-        <v>11.1346236873012</v>
+        <v>6.509292703447869</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.81397299373309</v>
+        <v>15.44269300992698</v>
       </c>
       <c r="C17">
-        <v>5.927762915754293</v>
+        <v>9.187395021421327</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>10.17433335518477</v>
+        <v>4.399159801668764</v>
       </c>
       <c r="F17">
-        <v>52.73211734274162</v>
+        <v>48.30353240070027</v>
       </c>
       <c r="G17">
-        <v>3.76096435722553</v>
+        <v>2.137012561956194</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>39.21157990150931</v>
+        <v>34.66049411635868</v>
       </c>
       <c r="J17">
-        <v>10.8669123450716</v>
+        <v>7.531066218486907</v>
       </c>
       <c r="K17">
-        <v>15.13155531243877</v>
+        <v>13.58881624716086</v>
       </c>
       <c r="L17">
-        <v>11.14139143753676</v>
+        <v>6.452772854231284</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.78979494967935</v>
+        <v>15.2663849924224</v>
       </c>
       <c r="C18">
-        <v>5.8825785036516</v>
+        <v>9.061008477548892</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>10.18202730651109</v>
+        <v>4.396168755728767</v>
       </c>
       <c r="F18">
-        <v>52.66163376751596</v>
+        <v>47.93740112747298</v>
       </c>
       <c r="G18">
-        <v>3.761680798075045</v>
+        <v>2.13930608746885</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>39.17193712653027</v>
+        <v>34.46601503328452</v>
       </c>
       <c r="J18">
-        <v>10.86697914318482</v>
+        <v>7.535176483217844</v>
       </c>
       <c r="K18">
-        <v>15.1123872281239</v>
+        <v>13.40462852158159</v>
       </c>
       <c r="L18">
-        <v>11.14549439583704</v>
+        <v>6.4205700648353</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.78168536067501</v>
+        <v>15.206481499007</v>
       </c>
       <c r="C19">
-        <v>5.867222875106004</v>
+        <v>9.017971403494633</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>10.18466046767075</v>
+        <v>4.39520825920131</v>
       </c>
       <c r="F19">
-        <v>52.63788575831626</v>
+        <v>47.81342567682096</v>
       </c>
       <c r="G19">
-        <v>3.761925013114544</v>
+        <v>2.140084020758387</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>39.1585766904884</v>
+        <v>34.40028886107596</v>
       </c>
       <c r="J19">
-        <v>10.86700443735801</v>
+        <v>7.536578574346743</v>
       </c>
       <c r="K19">
-        <v>15.10595964534689</v>
+        <v>13.34187856794841</v>
       </c>
       <c r="L19">
-        <v>11.14691972367419</v>
+        <v>6.409719729028829</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.81848406849518</v>
+        <v>15.47522425141325</v>
       </c>
       <c r="C20">
-        <v>5.936098117944843</v>
+        <v>9.210670728038322</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>10.17292272871115</v>
+        <v>4.399738209178039</v>
       </c>
       <c r="F20">
-        <v>52.74521732496319</v>
+        <v>48.37128960895786</v>
       </c>
       <c r="G20">
-        <v>3.760832538734258</v>
+        <v>2.136588720827382</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>39.21894619161704</v>
+        <v>34.69654538514174</v>
       </c>
       <c r="J20">
-        <v>10.86690125455156</v>
+        <v>7.530310463661655</v>
       </c>
       <c r="K20">
-        <v>15.13513242215203</v>
+        <v>13.62272216638769</v>
       </c>
       <c r="L20">
-        <v>11.14064923400405</v>
+        <v>6.458757926681716</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.94735729156512</v>
+        <v>16.48660142142817</v>
       </c>
       <c r="C21">
-        <v>6.163336414375907</v>
+        <v>9.841497381844869</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>10.13543786320214</v>
+        <v>4.418607231280022</v>
       </c>
       <c r="F21">
-        <v>53.11376372467835</v>
+        <v>50.24451221765091</v>
       </c>
       <c r="G21">
-        <v>3.757275727516415</v>
+        <v>2.124929520057305</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>39.42601817653781</v>
+        <v>35.70040018147299</v>
       </c>
       <c r="J21">
-        <v>10.86674113286559</v>
+        <v>7.509982289187567</v>
       </c>
       <c r="K21">
-        <v>15.23742026060287</v>
+        <v>14.53988738123826</v>
       </c>
       <c r="L21">
-        <v>11.12209317894653</v>
+        <v>6.62714525381307</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.03536369679722</v>
+        <v>17.13948762020147</v>
       </c>
       <c r="C22">
-        <v>6.308508150581008</v>
+        <v>10.24190631106782</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.1123898223145</v>
+        <v>4.433677486614097</v>
       </c>
       <c r="F22">
-        <v>53.36032291437579</v>
+        <v>51.46757212564348</v>
       </c>
       <c r="G22">
-        <v>3.755035497907418</v>
+        <v>2.117357782628254</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>39.56442699428281</v>
+        <v>36.36291772313495</v>
       </c>
       <c r="J22">
-        <v>10.86677587579041</v>
+        <v>7.497250201147887</v>
       </c>
       <c r="K22">
-        <v>15.30736990063682</v>
+        <v>15.1202319615234</v>
       </c>
       <c r="L22">
-        <v>11.11183540709148</v>
+        <v>6.73983682571343</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.98805509715187</v>
+        <v>16.79287673801275</v>
       </c>
       <c r="C23">
-        <v>6.231347030147137</v>
+        <v>10.02925231943427</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>10.12455857150417</v>
+        <v>4.425382484549929</v>
       </c>
       <c r="F23">
-        <v>53.22822284076049</v>
+        <v>50.81492566975925</v>
       </c>
       <c r="G23">
-        <v>3.756223459898978</v>
+        <v>2.121395548398314</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>39.49027973053135</v>
+        <v>36.00871839101229</v>
       </c>
       <c r="J23">
-        <v>10.86674455651907</v>
+        <v>7.503994360080407</v>
       </c>
       <c r="K23">
-        <v>15.26975853632696</v>
+        <v>14.81219463509419</v>
       </c>
       <c r="L23">
-        <v>11.11713927067181</v>
+        <v>6.679453024307589</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.81644326629174</v>
+        <v>15.46052092759056</v>
       </c>
       <c r="C24">
-        <v>5.932330892960225</v>
+        <v>9.200152352551905</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>10.17355995276043</v>
+        <v>4.399475766936925</v>
       </c>
       <c r="F24">
-        <v>52.73929282925484</v>
+        <v>48.34065732276719</v>
       </c>
       <c r="G24">
-        <v>3.760892103165669</v>
+        <v>2.136780312315874</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>39.2156148325026</v>
+        <v>34.68024468271469</v>
       </c>
       <c r="J24">
-        <v>10.86690621990725</v>
+        <v>7.53065194493705</v>
       </c>
       <c r="K24">
-        <v>15.13351411411591</v>
+        <v>13.60740052462689</v>
       </c>
       <c r="L24">
-        <v>11.14098412356594</v>
+        <v>6.456051167317642</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.64832979123515</v>
+        <v>14.15263387716335</v>
       </c>
       <c r="C25">
-        <v>5.597015168181664</v>
+        <v>8.251656101340778</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.23267339906114</v>
+        <v>4.38316357198932</v>
       </c>
       <c r="F25">
-        <v>52.23771424689101</v>
+        <v>45.66962336959605</v>
       </c>
       <c r="G25">
-        <v>3.766292949798448</v>
+        <v>2.153674685314601</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>38.93307928227087</v>
+        <v>33.27437043056786</v>
       </c>
       <c r="J25">
-        <v>10.86767677634154</v>
+        <v>7.561732234303978</v>
       </c>
       <c r="K25">
-        <v>15.00039239855123</v>
+        <v>12.43382665752148</v>
       </c>
       <c r="L25">
-        <v>11.17474698430932</v>
+        <v>6.226843161549941</v>
       </c>
       <c r="M25">
         <v>0</v>
